--- a/src/test/java/trello/resources/testdata.xlsx
+++ b/src/test/java/trello/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameya/Projects/JPMCRestAssured/src/test/java/trello/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8AFB8-5768-D34A-9671-86115F769099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C8A36F-DD33-034E-826E-634F5F8E2B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32380" yWindow="-1660" windowWidth="25440" windowHeight="15360" xr2:uid="{43A95DF9-77C4-6A4D-B0AA-05FAF99277B4}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
